--- a/assets/all-profiles.xlsx
+++ b/assets/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2101,16 +2101,16 @@
     <t>The appointment is part of recurring session.</t>
   </si>
   <si>
-    <t>hn-basis-scedule</t>
-  </si>
-  <si>
-    <t>http://example.org/StructureDefinition/hn-basis-scedule</t>
-  </si>
-  <si>
-    <t>HnBasisScedule</t>
-  </si>
-  <si>
-    <t>Profile used for Sceduler in HN. Based on FHIR Schedule (R4)</t>
+    <t>hn-basis-schedule</t>
+  </si>
+  <si>
+    <t>http://example.org/StructureDefinition/hn-basis-schedule</t>
+  </si>
+  <si>
+    <t>HnBasisSchedule</t>
+  </si>
+  <si>
+    <t>Profile used for Scheduler in HN. Based on FHIR Schedule (R4)</t>
   </si>
   <si>
     <t>Schedule</t>
